--- a/ISO27k Asset Register_IT13061180.xlsx
+++ b/ISO27k Asset Register_IT13061180.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paba\Desktop\ESBP\ESBPII\ESBPlab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="730" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="13" r:id="rId1"/>
@@ -2240,7 +2240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="247">
   <si>
     <t>Asset Title</t>
   </si>
@@ -2988,6 +2988,9 @@
   </si>
   <si>
     <t>1. Different protection levels based on the location of the computer.                             2.High Availability.                                          3.User and Application Control.</t>
+  </si>
+  <si>
+    <t>[https://github.com/pabakodi/ESBPlab01/blob/master/ISO27k%20Asset%20Register_IT13061180.xlsx](https://github.com/pabakodi/ESBPlab01/blob/master/ISO27k%20Asset%20Register_IT13061180.xlsx)</t>
   </si>
 </sst>
 </file>
@@ -3869,6 +3872,9 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4091,9 +4097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5618,17 +5621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="IT1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="IQ2" t="s">
         <v>62</v>
       </c>
@@ -5637,9 +5640,9 @@
       </c>
     </row>
     <row r="3" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="IQ3" t="s">
         <v>63</v>
       </c>
@@ -5648,38 +5651,38 @@
       </c>
     </row>
     <row r="4" spans="1:254" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="IQ4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:254" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
     </row>
     <row r="6" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
     </row>
     <row r="7" spans="1:254" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
     </row>
     <row r="8" spans="1:254" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
       <c r="E8" s="52"/>
       <c r="IT8" s="32" t="s">
         <v>62</v>
@@ -5758,53 +5761,53 @@
       </c>
     </row>
     <row r="18" spans="2:254" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="IT18" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
       <c r="IT19" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="54" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B23" s="63"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B24" s="63"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B25" s="63"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="53" t="s">
         <v>88</v>
       </c>
@@ -5813,7 +5816,7 @@
       </c>
     </row>
     <row r="26" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B26" s="63"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="53" t="s">
         <v>89</v>
       </c>
@@ -5822,31 +5825,31 @@
       </c>
     </row>
     <row r="27" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B27" s="63"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="53" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="53" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="53" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:254" x14ac:dyDescent="0.2">
-      <c r="B30" s="63"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="54" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:254" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="64"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="55" t="s">
         <v>95</v>
       </c>
@@ -5909,53 +5912,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -5964,254 +5967,254 @@
       <c r="B7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="141"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="28"/>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E34:$E36,"H")*3+COUNTIF($E34:$E36,"M")*2+COUNTIF($E34:$E36,"L")*1</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="147"/>
+      <c r="E9" s="148"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="147"/>
+      <c r="E10" s="148"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="147"/>
+      <c r="E11" s="148"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="147"/>
+      <c r="E12" s="148"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="147"/>
+      <c r="E13" s="148"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="147"/>
+      <c r="E14" s="148"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="147"/>
+      <c r="E15" s="148"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="147"/>
+      <c r="E16" s="148"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="36" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="147"/>
+      <c r="E17" s="148"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="147"/>
+      <c r="E18" s="148"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="23" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="147"/>
+      <c r="E19" s="148"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="147"/>
+      <c r="E20" s="148"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="146"/>
-      <c r="B21" s="146"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="147"/>
+      <c r="E21" s="148"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="147"/>
+      <c r="E22" s="148"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="146"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="147"/>
+      <c r="E23" s="148"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="146"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="23" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="147"/>
+      <c r="E24" s="148"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="146"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="147"/>
+      <c r="E25" s="148"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="28"/>
-      <c r="E26" s="147"/>
+      <c r="E26" s="148"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="28"/>
-      <c r="E27" s="147"/>
+      <c r="E27" s="148"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="146"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="147"/>
+      <c r="E28" s="148"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="146"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="28"/>
-      <c r="E29" s="147"/>
+      <c r="E29" s="148"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="146"/>
-      <c r="B30" s="146"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="147"/>
+      <c r="E30" s="148"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="146"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="147"/>
+      <c r="E31" s="148"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="146"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="147"/>
+      <c r="E32" s="148"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="146"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="148"/>
+      <c r="E33" s="149"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="146"/>
-      <c r="B34" s="146"/>
+      <c r="A34" s="147"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="14" t="s">
         <v>43</v>
       </c>
@@ -6221,8 +6224,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="14" t="s">
         <v>44</v>
       </c>
@@ -6232,8 +6235,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="14" t="s">
         <v>45</v>
       </c>
@@ -6243,11 +6246,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6316,53 +6319,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -6371,272 +6374,272 @@
       <c r="B7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E36:$E38,"H")*3+COUNTIF($E36:$E38,"M")*2+COUNTIF($E36:$E38,"L")*1</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="36" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="116"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="45"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="45"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="116"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="144"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="45"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="144"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="45"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="116"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="45"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="45"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="45"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="45"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="116"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="45"/>
-      <c r="E35" s="116"/>
+      <c r="E35" s="117"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="14" t="s">
         <v>43</v>
       </c>
@@ -6646,8 +6649,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="14" t="s">
         <v>44</v>
       </c>
@@ -6657,8 +6660,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="144"/>
-      <c r="B38" s="144"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="14" t="s">
         <v>45</v>
       </c>
@@ -6668,11 +6671,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6727,7 +6730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
@@ -6741,53 +6744,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -6796,17 +6799,17 @@
       <c r="B7" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="143"/>
-      <c r="B8" s="145" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="146" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -6815,161 +6818,161 @@
       <c r="D8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E24:$E26,"H")*3+COUNTIF($E24:$E26,"M")*2+COUNTIF($E24:$E26,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="37" t="s">
         <v>119</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="36" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="36" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="116"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="117"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="14" t="s">
         <v>43</v>
       </c>
@@ -6981,8 +6984,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
@@ -6994,8 +6997,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
@@ -7007,11 +7010,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7077,53 +7080,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -7132,137 +7135,137 @@
       <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="143"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E21:$E23,"H")*3+COUNTIF($E21:$E23,"M")*2+COUNTIF($E21:$E23,"L")*1</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="37" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="37" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="37" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="14" t="s">
         <v>126</v>
       </c>
@@ -7272,8 +7275,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
@@ -7283,8 +7286,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
@@ -7294,11 +7297,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="47"/>
@@ -7354,11 +7357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7371,60 +7374,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:256" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:256" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="str">
+      <c r="A6" s="86" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="I6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:256" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -7433,91 +7439,91 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A9" s="97">
+      <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>162</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="94">
+      <c r="E9" s="95">
         <f>COUNTIF($E20:$E22,"H")*3+COUNTIF($E20:$E22,"M")*2+COUNTIF($E20:$E22,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="IS15" t="s">
         <v>24</v>
       </c>
@@ -7526,15 +7532,15 @@
       </c>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="97"/>
       <c r="IS16" t="s">
         <v>25</v>
       </c>
@@ -7543,13 +7549,13 @@
       </c>
     </row>
     <row r="17" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="97"/>
       <c r="IS17" t="s">
         <v>26</v>
       </c>
@@ -7558,28 +7564,28 @@
       </c>
     </row>
     <row r="18" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:256" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="1:256" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="60" t="s">
         <v>15</v>
       </c>
@@ -7592,8 +7598,8 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:256" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
@@ -7605,8 +7611,8 @@
       </c>
     </row>
     <row r="22" spans="1:256" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
@@ -7618,11 +7624,11 @@
       </c>
     </row>
     <row r="23" spans="1:256" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7701,60 +7707,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="str">
+      <c r="A6" s="107" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -7763,193 +7769,193 @@
       <c r="B8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="97">
+      <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>163</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="94">
+      <c r="E9" s="95">
         <f>COUNTIF($E26:$E28,"H")*3+COUNTIF($E26:$E28,"M")*2+COUNTIF($E26:$E28,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="103"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="103"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="103"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="103"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="103"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="103"/>
+      <c r="E17" s="104"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="103"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="103"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="103"/>
+      <c r="E20" s="104"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="103"/>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="59" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="103"/>
+      <c r="E22" s="104"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="103"/>
+      <c r="E23" s="104"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="103"/>
+      <c r="E24" s="104"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="103"/>
+      <c r="E25" s="104"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
@@ -7961,8 +7967,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
@@ -7974,8 +7980,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
@@ -7987,11 +7993,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8060,53 +8066,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="str">
+      <c r="A5" s="107" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -8115,197 +8121,197 @@
       <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="97">
+      <c r="A8" s="98">
         <v>1</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="101" t="s">
         <v>164</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="94">
+      <c r="E8" s="95">
         <f>COUNTIF($E25:$E27,"H")*3+COUNTIF($E25:$E27,"M")*2+COUNTIF($E25:$E27,"L")*1</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="23" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="22" t="s">
         <v>136</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="96"/>
+      <c r="E20" s="97"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="96"/>
+      <c r="E21" s="97"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="101"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="96"/>
+      <c r="E22" s="97"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="96"/>
+      <c r="E23" s="97"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="96"/>
+      <c r="E24" s="97"/>
     </row>
     <row r="25" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
@@ -8317,8 +8323,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
@@ -8330,8 +8336,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
@@ -8343,11 +8349,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8416,53 +8422,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="128"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -8471,17 +8477,17 @@
       <c r="B7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="121" t="s">
         <v>165</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -8490,205 +8496,205 @@
       <c r="D8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E28:$E30,"H")*3+COUNTIF($E28:$E30,"M")*2+COUNTIF($E28:$E30,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="118"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="118"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="21" t="s">
         <v>132</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="118"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="118"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="115"/>
+      <c r="E22" s="116"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="121"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="116"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="121"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="116"/>
+      <c r="E27" s="117"/>
     </row>
     <row r="28" spans="1:5" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="118"/>
-      <c r="B28" s="121"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
@@ -8700,8 +8706,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="118"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="14" t="s">
         <v>73</v>
       </c>
@@ -8713,8 +8719,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="122"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="14" t="s">
         <v>74</v>
       </c>
@@ -8726,11 +8732,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8793,60 +8799,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="83"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="83"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="str">
+      <c r="A6" s="107" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -8855,139 +8861,139 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="97">
+      <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="94">
+      <c r="E9" s="95">
         <f>COUNTIF($E20:$E22,"H")*3+COUNTIF($E20:$E22,"M")*2+COUNTIF($E20:$E22,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="96"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="96"/>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
@@ -8999,8 +9005,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="6" t="s">
         <v>13</v>
       </c>
@@ -9012,8 +9018,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
@@ -9025,11 +9031,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -9106,58 +9112,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="131"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9167,20 +9173,20 @@
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="141"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="135">
+      <c r="A8" s="136">
         <v>1</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="141" t="s">
         <v>192</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -9189,77 +9195,77 @@
       <c r="D8" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E8" s="139">
         <f>COUNTIF($E15:$E17,"H")*3+COUNTIF($E15:$E17,"M")*2+COUNTIF($E15:$E17,"L")*1</f>
         <v>9</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="96"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="136"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="139"/>
+      <c r="E14" s="140"/>
     </row>
     <row r="15" spans="1:6" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="136"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
@@ -9271,8 +9277,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="14" t="s">
         <v>13</v>
       </c>
@@ -9284,8 +9290,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="14" t="s">
         <v>14</v>
       </c>
@@ -9297,11 +9303,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9363,53 +9369,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -9418,17 +9424,17 @@
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="143"/>
-      <c r="B8" s="145" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="146" t="s">
         <v>166</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -9437,293 +9443,293 @@
       <c r="D8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E38:$E40,"H")*3+COUNTIF($E38:$E40,"M")*2+COUNTIF($E38:$E40,"L")*1</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="36" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="37" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="115"/>
+      <c r="E22" s="116"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="115"/>
+      <c r="E26" s="116"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="144"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="144"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="45"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="144"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="45"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="116"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="45"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="45"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="45"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="116"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="45"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="116"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="116"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="116"/>
+      <c r="E37" s="117"/>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="144"/>
-      <c r="B38" s="144"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
@@ -9735,8 +9741,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="144"/>
-      <c r="B39" s="144"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
@@ -9748,8 +9754,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="144"/>
-      <c r="B40" s="144"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
@@ -9761,11 +9767,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="47"/>
@@ -10000,53 +10006,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="str">
+      <c r="A5" s="126" t="str">
         <f>PROCESS</f>
         <v>ABC Ltd.</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="128"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:5" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
@@ -10055,17 +10061,17 @@
       <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="121" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -10074,299 +10080,299 @@
       <c r="D8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="115">
         <f>COUNTIF($E38:$E40,"H")*3+COUNTIF($E38:$E40,"M")*2+COUNTIF($E38:$E40,"L")*1</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="118"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="118"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="49" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="118"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="118"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="115"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="118"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="37" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="30" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="115"/>
+      <c r="E22" s="116"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="45"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="121"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="116"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="121"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="45"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="118"/>
-      <c r="B28" s="121"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="45"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="118"/>
-      <c r="B29" s="121"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="45"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="118"/>
-      <c r="B30" s="121"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="116"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="118"/>
-      <c r="B31" s="121"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="118"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="149" t="s">
+      <c r="D32" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="115"/>
+      <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="118"/>
-      <c r="B33" s="121"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="38" t="s">
         <v>105</v>
       </c>
       <c r="D33" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="121"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="115"/>
+      <c r="E34" s="116"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="118"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="45"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="116"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="118"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="116"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="118"/>
-      <c r="B37" s="121"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="116"/>
     </row>
     <row r="38" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="118"/>
-      <c r="B38" s="121"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="14" t="s">
         <v>126</v>
       </c>
@@ -10378,8 +10384,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="118"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
@@ -10391,8 +10397,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="119"/>
-      <c r="B40" s="122"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
@@ -10404,11 +10410,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="8">
